--- a/out/result.xlsx
+++ b/out/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>data-1</t>
+          <t>VH6-1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>data-2</t>
+          <t>VH6-2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>data-3</t>
+          <t>VH6-3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 5</t>
         </is>
       </c>
     </row>
@@ -457,13 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.002299583911234396</v>
+        <v>-0.003386904761904784</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.001720874940561103</v>
+        <v>-0.003791666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.001492857142857091</v>
+        <v>-0.003785714285714305</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-3.654761904761919</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.231990181784577</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.108593100900759e-05</v>
+        <v>0.0001326103556468834</v>
       </c>
       <c r="C3" t="n">
-        <v>2.381040401059989e-05</v>
+        <v>5.962293333856607e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>3.741960391783132e-05</v>
+        <v>0.0001104002201844736</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1008778363899744</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0374138717409796</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004062821978251135</v>
+        <v>0.0004739443022359252</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003496225816041448</v>
+        <v>0.0005037909657697048</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0003250293295967557</v>
+        <v>0.0005033603472497537</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4936985384184613</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01710902520437658</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.77598313781867</v>
+        <v>67.9044975528269</v>
       </c>
       <c r="C5" t="n">
-        <v>27.25932178698905</v>
+        <v>81.55822139342708</v>
       </c>
       <c r="D5" t="n">
-        <v>21.90202531968694</v>
+        <v>81.34926288442041</v>
+      </c>
+      <c r="E5" t="n">
+        <v>76.93732727689145</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7.823357689162616</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04550000000000016</v>
+        <v>0.1341000000000005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0278000000000001</v>
+        <v>0.1131000000000004</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02330000000000008</v>
+        <v>0.1162000000000004</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1205500000000004</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01191668997666723</v>
       </c>
     </row>
   </sheetData>
